--- a/biology/Microbiologie/Colepidae/Colepidae.xlsx
+++ b/biology/Microbiologie/Colepidae/Colepidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colepidae sont une famille de Ciliés de la classe des Prostomatea et de l’ordre des Prostomatida ou des Prorodontida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Coleps, de coleps, articulation, peut-être en référence au « corps rond et tordu » de l'organisme[note 1].
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Coleps est un cilié ayant un corps en forme de tonneau entourés de plaques régulièrement disposées composées de carbonate de calcium.
 Les espèces de Coleps peuvent mesurer entre 100 et 250 µm de long dans leur grand axe. En taxonomie, on les distingues par l'ornementation des plaques ectoplasmiques qui composent leur test. Celles-ci sont situées à l'extérieur des vésicules alvéolaires du cortex cellulaire et contiennent à la fois des composants organiques et inorganiques, ce dernier étant principalement du carbonate de calcium amorphe.
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (23 septembre 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (23 septembre 2022) :
 Apocoleps Chen, Warren &amp; Song, 2009
 Baikalocoleps Obolkina, 1995
 Cercaria
@@ -592,7 +610,7 @@
 Reticoleps Foissner, Kusuoka &amp; Shimano, 2008
 Tiarina Berg, 1881
 Tiarinella Obolkina, 1995
-Selon le World Register of Marine Species                               (23 septembre 2022)[2] :
+Selon le World Register of Marine Species                               (23 septembre 2022) :
 Coleps (en) Nitzsch, 1827
 Plagiopogon Stein, 1859
 Tiarina Berg, 1881
@@ -629,10 +647,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Colepidae Ehrenberg, 1838[2].
-Le World Register of Marine Species                               (23 septembre 2022)[2] classe cette famille dans l'ordre des Prorodontida, GBIF       (23 septembre 2022)[1] dans l'ordre des Prostomatida.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Colepidae Ehrenberg, 1838.
+Le World Register of Marine Species                               (23 septembre 2022) classe cette famille dans l'ordre des Prorodontida, GBIF       (23 septembre 2022) dans l'ordre des Prostomatida.
 </t>
         </is>
       </c>
